--- a/doc/SprintReviewProtocols/Sprint_Review_Protocol#5.xlsx
+++ b/doc/SprintReviewProtocols/Sprint_Review_Protocol#5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13511"/>
+    <workbookView windowWidth="30720" windowHeight="13655"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,12 +135,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -193,28 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,6 +269,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -292,21 +300,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -335,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,181 +361,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +697,54 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -728,54 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -813,148 +800,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,7 +1321,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1625,7 +1612,9 @@
         <f t="shared" si="0"/>
         <v>-0.25</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="18"/>
     </row>
@@ -1733,7 +1722,9 @@
         <v>0</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8">
@@ -1773,11 +1764,11 @@
       </c>
       <c r="F26" s="22">
         <f>COUNT(F16:F25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="22">
         <f>COUNT(G16:G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="22"/>
     </row>
